--- a/Documentos/DomoticMood.xlsx
+++ b/Documentos/DomoticMood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javir\Desktop\DomoticMood\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javja\OneDrive\Escritorio\DomoticMood\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48001D65-EEF7-4574-9C10-C20A70F8CBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA3E52E-B5A8-48DC-B82B-4410D686CCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9F18A56C-43DA-4260-8C29-14670BEE72CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{9F18A56C-43DA-4260-8C29-14670BEE72CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -657,6 +656,7 @@
     <xf numFmtId="6" fontId="1" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Énfasis6" xfId="3" builtinId="52"/>
@@ -733,14 +733,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CAA44D3-3DD2-40CF-B6BA-03D1F14AEA7C}" name="Tabla3" displayName="Tabla3" ref="I1:J15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CAA44D3-3DD2-40CF-B6BA-03D1F14AEA7C}" name="Tabla3" displayName="Tabla3" ref="I1:J15" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="I1:J15" xr:uid="{9CAA44D3-3DD2-40CF-B6BA-03D1F14AEA7C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{036DE4E0-3134-4277-B076-6D4039B157A3}" name="Servicio" dataDxfId="2" dataCellStyle="Incorrecto"/>
-    <tableColumn id="2" xr3:uid="{378BE3D5-D6FC-45F7-B3E4-8AE552908F1D}" name="Precio" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{036DE4E0-3134-4277-B076-6D4039B157A3}" name="Servicio" dataDxfId="1" dataCellStyle="Incorrecto"/>
+    <tableColumn id="2" xr3:uid="{378BE3D5-D6FC-45F7-B3E4-8AE552908F1D}" name="Precio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,25 +1045,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA7C316-E20C-47BC-8E77-A036621AE5C7}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1080,17 +1080,17 @@
         <v>58</v>
       </c>
       <c r="G1" s="7">
-        <v>18000</v>
-      </c>
-      <c r="I1" s="44" t="s">
+        <v>20000</v>
+      </c>
+      <c r="I1" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1107,19 +1107,19 @@
       <c r="F2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="46">
         <f>-SUBTOTAL(109,B2:B61)</f>
         <v>-5685</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="45">
         <v>-8680</v>
       </c>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1133,21 +1133,21 @@
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>60</v>
       </c>
       <c r="G3" s="7">
         <v>1400</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="49">
-        <v>-15000</v>
-      </c>
-      <c r="K3" s="44"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="48">
+        <v>-180000</v>
+      </c>
+      <c r="K3" s="43"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1164,15 +1164,15 @@
       <c r="F4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <f>SUM(Tabla3[Precio])</f>
-        <v>-23680</v>
-      </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-188680</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="43"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1186,11 +1186,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="44"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1204,11 +1204,11 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1222,11 +1222,11 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1240,11 +1240,11 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="43"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1258,11 +1258,11 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1276,11 +1276,11 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1294,11 +1294,11 @@
         <f>PRODUCT(B11,C11)</f>
         <v>385</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1312,11 +1312,11 @@
         <f>PRODUCT(B12,C12)</f>
         <v>385</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1330,11 +1330,11 @@
         <f t="shared" si="0"/>
         <v>790</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1348,11 +1348,11 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1366,11 +1366,11 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="44"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1384,10 +1384,10 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="44"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="44"/>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1401,10 +1401,10 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="44"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="44"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1418,10 +1418,10 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="44"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="44"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1435,29 +1435,29 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="44"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="44"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="44"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="44"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5">
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5">
@@ -1481,266 +1481,266 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25" s="6"/>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C26" s="6"/>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" s="6"/>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" s="6"/>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" s="6"/>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" s="6"/>
       <c r="D30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" s="6"/>
       <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
       <c r="D32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" s="6"/>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="6"/>
       <c r="D34" s="5">
         <f t="shared" ref="D34:D62" si="1">PRODUCT(B34,C34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="6"/>
       <c r="D35" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="6"/>
       <c r="D36" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="6"/>
       <c r="D37" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="6"/>
       <c r="D38" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="6"/>
       <c r="D39" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="6"/>
       <c r="D40" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="6"/>
       <c r="D41" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="6"/>
       <c r="D42" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="6"/>
       <c r="D43" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="6"/>
       <c r="D44" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="6"/>
       <c r="D45" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="6"/>
       <c r="D46" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" s="6"/>
       <c r="D47" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" s="6"/>
       <c r="D48" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C49" s="6"/>
       <c r="D49" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C50" s="6"/>
       <c r="D50" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C51" s="6"/>
       <c r="D51" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C52" s="6"/>
       <c r="D52" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C53" s="6"/>
       <c r="D53" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C54" s="6"/>
       <c r="D54" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C55" s="6"/>
       <c r="D55" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56" s="6"/>
       <c r="D56" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C57" s="6"/>
       <c r="D57" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
       <c r="D58" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C59" s="6"/>
       <c r="D59" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C60" s="6"/>
       <c r="D60" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C61" s="6"/>
       <c r="D61" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -1767,21 +1767,21 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="15" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="15" width="14.6640625" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1793,7 +1793,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>23</v>
@@ -1807,7 +1807,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="11" t="s">
         <v>24</v>
@@ -1823,7 +1823,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
@@ -1835,7 +1835,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="12"/>
@@ -1847,14 +1847,14 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="14"/>
@@ -1898,168 +1898,168 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15">
         <f>(D9)*Hoja1!G3</f>
-        <v>1400</v>
+        <v>15400</v>
       </c>
       <c r="F8" s="15">
         <f>SUM(D9:E9)*Hoja1!G3</f>
-        <v>4200</v>
+        <v>29400</v>
       </c>
       <c r="G8" s="15">
         <f>SUM(D9:F9)*Hoja1!G3</f>
-        <v>8400</v>
+        <v>44800</v>
       </c>
       <c r="H8" s="15">
         <f>SUM(D9:G9)*Hoja1!G3</f>
-        <v>9800</v>
+        <v>65800</v>
       </c>
       <c r="I8" s="15">
         <f>SUM(D9:H9)*Hoja1!G3</f>
-        <v>12600</v>
+        <v>86800</v>
       </c>
       <c r="J8" s="15">
         <f>SUM(D9:I9)*Hoja1!G3</f>
-        <v>18200</v>
+        <v>107800</v>
       </c>
       <c r="K8" s="15">
         <f>SUM(D9:J9)*Hoja1!G3</f>
-        <v>21000</v>
+        <v>130200</v>
       </c>
       <c r="L8" s="15">
         <f>SUM(D9:K9)*Hoja1!G3</f>
-        <v>22400</v>
+        <v>156800</v>
       </c>
       <c r="M8" s="15">
         <f>SUM(D9:L9)*Hoja1!G3</f>
-        <v>33600</v>
+        <v>173600</v>
       </c>
       <c r="N8" s="15">
         <f>SUM(D9:M9)*Hoja1!G3</f>
-        <v>35000</v>
+        <v>197400</v>
       </c>
       <c r="O8" s="15">
         <f>SUM(D9:N9)*Hoja1!G3</f>
-        <v>37800</v>
+        <v>224000</v>
       </c>
       <c r="P8" s="15">
         <f>SUM(D9:O9)*Hoja1!G3</f>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>252000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E9" s="15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F9" s="15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G9" s="15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H9" s="15">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I9" s="15">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J9" s="15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K9" s="15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L9" s="15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M9" s="15">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N9" s="15">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O9" s="15">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P9" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="19">
-        <f>SUM(D7:D9)</f>
-        <v>1</v>
+        <f>D8+(Hoja1!G1*D9)</f>
+        <v>220000</v>
       </c>
       <c r="E10" s="19">
         <f>Hoja1!G1*Hoja2!E9+Hoja2!E8</f>
-        <v>37400</v>
+        <v>215400</v>
       </c>
       <c r="F10" s="19">
         <f>Hoja1!G1*Hoja2!F9+Hoja2!F8</f>
-        <v>58200</v>
+        <v>249400</v>
       </c>
       <c r="G10" s="19">
         <f>Hoja1!G1*Hoja2!G9+Hoja2!G8</f>
-        <v>26400</v>
+        <v>344800</v>
       </c>
       <c r="H10" s="19">
         <f>Hoja1!G1*Hoja2!H9+Hoja2!H8</f>
-        <v>45800</v>
+        <v>365800</v>
       </c>
       <c r="I10" s="19">
         <f>Hoja1!G1*Hoja2!I9+Hoja2!I8</f>
-        <v>84600</v>
+        <v>386800</v>
       </c>
       <c r="J10" s="19">
         <f>Hoja1!G1*Hoja2!J9+Hoja2!J8</f>
-        <v>54200</v>
+        <v>427800</v>
       </c>
       <c r="K10" s="19">
         <f>Hoja1!G1*Hoja2!K9+Hoja2!K8</f>
-        <v>39000</v>
+        <v>510200</v>
       </c>
       <c r="L10" s="19">
         <f>Hoja1!G1*Hoja2!L9+Hoja2!L8</f>
-        <v>166400</v>
+        <v>396800</v>
       </c>
       <c r="M10" s="19">
         <f>Hoja1!G1*Hoja2!M9+Hoja2!M8</f>
-        <v>51600</v>
+        <v>513600</v>
       </c>
       <c r="N10" s="19">
         <f>Hoja1!G1*Hoja2!N9+Hoja2!N8</f>
-        <v>71000</v>
+        <v>577400</v>
       </c>
       <c r="O10" s="19">
         <f>Hoja1!G1*Hoja2!O9+Hoja2!O8</f>
-        <v>91800</v>
+        <v>624000</v>
       </c>
       <c r="P10" s="19">
         <f>Hoja1!G1*Hoja2!P9+Hoja2!P8</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>632000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -2079,7 +2079,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="20" t="s">
         <v>28</v>
@@ -2125,228 +2125,228 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <f>Hoja1!G2*D9</f>
-        <v>-5685</v>
-      </c>
-      <c r="E13" s="42">
+        <v>-62535</v>
+      </c>
+      <c r="E13" s="41">
         <f>Hoja1!G2*E9</f>
-        <v>-11370</v>
-      </c>
-      <c r="F13" s="42">
+        <v>-56850</v>
+      </c>
+      <c r="F13" s="41">
         <f>Hoja1!G2*F9</f>
-        <v>-17055</v>
-      </c>
-      <c r="G13" s="42">
+        <v>-62535</v>
+      </c>
+      <c r="G13" s="41">
         <f>Hoja1!G2*G9</f>
-        <v>-5685</v>
-      </c>
-      <c r="H13" s="42">
+        <v>-85275</v>
+      </c>
+      <c r="H13" s="41">
         <f>Hoja1!G2*H9</f>
-        <v>-11370</v>
-      </c>
-      <c r="I13" s="42">
+        <v>-85275</v>
+      </c>
+      <c r="I13" s="41">
         <f>Hoja1!G2*I9</f>
-        <v>-22740</v>
-      </c>
-      <c r="J13" s="42">
+        <v>-85275</v>
+      </c>
+      <c r="J13" s="41">
         <f>Hoja1!G2*J9</f>
-        <v>-11370</v>
-      </c>
-      <c r="K13" s="42">
+        <v>-90960</v>
+      </c>
+      <c r="K13" s="41">
         <f>Hoja1!G2*K9</f>
-        <v>-5685</v>
-      </c>
-      <c r="L13" s="42">
+        <v>-108015</v>
+      </c>
+      <c r="L13" s="41">
         <f>Hoja1!G2*L9</f>
-        <v>-45480</v>
-      </c>
-      <c r="M13" s="42">
+        <v>-68220</v>
+      </c>
+      <c r="M13" s="41">
         <f>Hoja1!G2*M9</f>
-        <v>-5685</v>
-      </c>
-      <c r="N13" s="42">
+        <v>-96645</v>
+      </c>
+      <c r="N13" s="41">
         <f>Hoja1!G2*N9</f>
-        <v>-11370</v>
-      </c>
-      <c r="O13" s="42">
+        <v>-108015</v>
+      </c>
+      <c r="O13" s="41">
         <f>Hoja1!G2*O9</f>
-        <v>-17055</v>
-      </c>
-      <c r="P13" s="42">
+        <v>-113700</v>
+      </c>
+      <c r="P13" s="41">
         <f>Hoja1!G2*P9</f>
-        <v>-5685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-108015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="E14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="E14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="F14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="F14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="G14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="G14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="H14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="H14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="I14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="I14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="J14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="J14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="K14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="K14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="L14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="L14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="M14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="M14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="N14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="N14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="O14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="O14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-      <c r="P14" s="42">
+        <v>-188680</v>
+      </c>
+      <c r="P14" s="41">
         <f>Hoja1!G4</f>
-        <v>-23680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-188680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="26"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42">
         <v>-200</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>-200</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="42">
         <v>-200</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="42">
         <v>-200</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="42">
         <v>-200</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="42">
         <v>-200</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="42">
         <v>-200</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="42">
         <v>-200</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="42">
         <v>-200</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="42">
         <v>-200</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="42">
         <v>-200</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="42">
         <v>-200</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="42">
         <f>SUM(D13:D15)</f>
-        <v>-29365</v>
-      </c>
-      <c r="E16" s="43">
+        <v>-251215</v>
+      </c>
+      <c r="E16" s="42">
         <f t="shared" ref="E16:F16" si="0">SUM(E13:E15)</f>
-        <v>-35250</v>
-      </c>
-      <c r="F16" s="43">
-        <f t="shared" si="0"/>
-        <v>-40935</v>
-      </c>
-      <c r="G16" s="43">
+        <v>-245730</v>
+      </c>
+      <c r="F16" s="42">
+        <f t="shared" si="0"/>
+        <v>-251415</v>
+      </c>
+      <c r="G16" s="42">
         <f t="shared" ref="G16:O16" si="1">SUM(G13:G15)</f>
-        <v>-29565</v>
-      </c>
-      <c r="H16" s="43">
-        <f t="shared" si="1"/>
-        <v>-35250</v>
-      </c>
-      <c r="I16" s="43">
-        <f t="shared" si="1"/>
-        <v>-46620</v>
-      </c>
-      <c r="J16" s="43">
-        <f t="shared" si="1"/>
-        <v>-35250</v>
-      </c>
-      <c r="K16" s="43">
-        <f t="shared" si="1"/>
-        <v>-29565</v>
-      </c>
-      <c r="L16" s="43">
-        <f t="shared" si="1"/>
-        <v>-69360</v>
-      </c>
-      <c r="M16" s="43">
-        <f t="shared" si="1"/>
-        <v>-29565</v>
-      </c>
-      <c r="N16" s="43">
-        <f t="shared" si="1"/>
-        <v>-35250</v>
-      </c>
-      <c r="O16" s="43">
-        <f t="shared" si="1"/>
-        <v>-40935</v>
-      </c>
-      <c r="P16" s="43">
+        <v>-274155</v>
+      </c>
+      <c r="H16" s="42">
+        <f t="shared" si="1"/>
+        <v>-274155</v>
+      </c>
+      <c r="I16" s="42">
+        <f t="shared" si="1"/>
+        <v>-274155</v>
+      </c>
+      <c r="J16" s="42">
+        <f t="shared" si="1"/>
+        <v>-279840</v>
+      </c>
+      <c r="K16" s="42">
+        <f t="shared" si="1"/>
+        <v>-296895</v>
+      </c>
+      <c r="L16" s="42">
+        <f t="shared" si="1"/>
+        <v>-257100</v>
+      </c>
+      <c r="M16" s="42">
+        <f t="shared" si="1"/>
+        <v>-285525</v>
+      </c>
+      <c r="N16" s="42">
+        <f t="shared" si="1"/>
+        <v>-296895</v>
+      </c>
+      <c r="O16" s="42">
+        <f t="shared" si="1"/>
+        <v>-302580</v>
+      </c>
+      <c r="P16" s="42">
         <f>SUM(P13:P15)</f>
-        <v>-29565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-296895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2364,66 +2364,66 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="41">
+      <c r="D18" s="40">
         <f>SUM(D10,D16)</f>
-        <v>-29364</v>
-      </c>
-      <c r="E18" s="41">
+        <v>-31215</v>
+      </c>
+      <c r="E18" s="40">
         <f t="shared" ref="E18:F18" si="2">SUM(E10,E16)</f>
-        <v>2150</v>
-      </c>
-      <c r="F18" s="41">
+        <v>-30330</v>
+      </c>
+      <c r="F18" s="40">
         <f t="shared" si="2"/>
-        <v>17265</v>
-      </c>
-      <c r="G18" s="41">
+        <v>-2015</v>
+      </c>
+      <c r="G18" s="40">
         <f t="shared" ref="G18:O18" si="3">SUM(G10,G16)</f>
-        <v>-3165</v>
-      </c>
-      <c r="H18" s="41">
+        <v>70645</v>
+      </c>
+      <c r="H18" s="40">
         <f t="shared" si="3"/>
-        <v>10550</v>
-      </c>
-      <c r="I18" s="41">
+        <v>91645</v>
+      </c>
+      <c r="I18" s="40">
         <f t="shared" si="3"/>
-        <v>37980</v>
-      </c>
-      <c r="J18" s="41">
+        <v>112645</v>
+      </c>
+      <c r="J18" s="40">
         <f t="shared" si="3"/>
-        <v>18950</v>
-      </c>
-      <c r="K18" s="41">
+        <v>147960</v>
+      </c>
+      <c r="K18" s="40">
         <f t="shared" si="3"/>
-        <v>9435</v>
-      </c>
-      <c r="L18" s="41">
+        <v>213305</v>
+      </c>
+      <c r="L18" s="40">
         <f t="shared" si="3"/>
-        <v>97040</v>
-      </c>
-      <c r="M18" s="41">
+        <v>139700</v>
+      </c>
+      <c r="M18" s="40">
         <f t="shared" si="3"/>
-        <v>22035</v>
-      </c>
-      <c r="N18" s="41">
+        <v>228075</v>
+      </c>
+      <c r="N18" s="40">
         <f t="shared" si="3"/>
-        <v>35750</v>
-      </c>
-      <c r="O18" s="41">
+        <v>280505</v>
+      </c>
+      <c r="O18" s="40">
         <f t="shared" si="3"/>
-        <v>50865</v>
-      </c>
-      <c r="P18" s="41">
+        <v>321420</v>
+      </c>
+      <c r="P18" s="40">
         <f>SUM(P10,P16)</f>
-        <v>30435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>335105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2434,14 +2434,14 @@
       <c r="H19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="30">
         <f>NPV(30%,D18:P18)</f>
-        <v>16253.489792122387</v>
+        <v>149837.83665307576</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -2450,13 +2450,13 @@
       <c r="H20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="31">
-        <f>D13</f>
-        <v>-5685</v>
+      <c r="C21" s="49">
+        <f>D16</f>
+        <v>-251215</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2465,13 +2465,13 @@
       <c r="H21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="32">
-        <f>SUM(C20,C21)</f>
-        <v>10568.489792122387</v>
+      <c r="C22" s="31">
+        <f>C20+C21</f>
+        <v>-101377.16334692424</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>
@@ -2482,7 +2482,7 @@
       <c r="H22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2492,13 +2492,13 @@
       <c r="H23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="32">
         <f>IRR(D18:P18)</f>
-        <v>0.43190379131383017</v>
+        <v>0.71203574232656064</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>62</v>
@@ -2509,7 +2509,7 @@
       <c r="H24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2520,13 +2520,13 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="30">
         <f>C20</f>
-        <v>16253.489792122387</v>
+        <v>149837.83665307576</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -2536,11 +2536,11 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
-      <c r="C27" s="34">
+      <c r="C27" s="33">
         <f>-C21</f>
-        <v>5685</v>
+        <v>251215</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -2549,32 +2549,32 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="34">
         <f>C26/C27</f>
-        <v>2.8590131560461542</v>
+        <v>0.59645258703929205</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I33" s="9"/>
     </row>
   </sheetData>
